--- a/Aula03/Produtos Novo.xlsx
+++ b/Aula03/Produtos Novo.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5.2439</v>
+        <v>5.279199999999999</v>
       </c>
       <c r="E2">
-        <v>5243.847561</v>
+        <v>5279.147207999999</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>7341.386585400001</v>
+        <v>7390.806091199998</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>5.3559</v>
+        <v>5.365435732</v>
       </c>
       <c r="E3">
-        <v>24101.55</v>
+        <v>24144.460794</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>48203.1</v>
+        <v>48288.921588</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.2439</v>
+        <v>5.279199999999999</v>
       </c>
       <c r="E4">
-        <v>4719.457561</v>
+        <v>4751.227207999999</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>8023.0778537</v>
+        <v>8077.086253599999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5.2439</v>
+        <v>5.279199999999999</v>
       </c>
       <c r="E5">
-        <v>4189.8761</v>
+        <v>4218.0808</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>7122.78937</v>
+        <v>7170.737359999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>5.3559</v>
+        <v>5.365435732</v>
       </c>
       <c r="E6">
-        <v>16067.7</v>
+        <v>16096.307196</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>30528.63</v>
+        <v>30582.9836724</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5.2439</v>
+        <v>5.279199999999999</v>
       </c>
       <c r="E7">
-        <v>2519.589072</v>
+        <v>2536.550016</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>5039.178144</v>
+        <v>5073.100031999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>292.78</v>
+        <v>302.39</v>
       </c>
       <c r="E8">
-        <v>5855.599999999999</v>
+        <v>6047.799999999999</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>6733.939999999999</v>
+        <v>6954.969999999998</v>
       </c>
     </row>
   </sheetData>
